--- a/fhir/ig/mfr/StructureDefinition-cl-addressMFR.xlsx
+++ b/fhir/ig/mfr/StructureDefinition-cl-addressMFR.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$29</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="242">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T16:32:16-03:00</t>
+    <t>2024-03-12T17:17:58-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -357,13 +357,133 @@
 </t>
   </si>
   <si>
-    <t>The absolute geographic location</t>
+    <t>dd</t>
   </si>
   <si>
     <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
   </si>
   <si>
     <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.id</t>
+  </si>
+  <si>
+    <t>Address.extension.id</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension</t>
+  </si>
+  <si>
+    <t>Address.extension.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:latitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:latitude.id</t>
+  </si>
+  <si>
+    <t>Address.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:latitude.extension</t>
+  </si>
+  <si>
+    <t>Address.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:latitude.url</t>
+  </si>
+  <si>
+    <t>Address.extension.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:latitude.value[x]</t>
+  </si>
+  <si>
+    <t>Address.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:longitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:longitude.id</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:longitude.extension</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:longitude.url</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.extension:longitude.value[x]</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.url</t>
+  </si>
+  <si>
+    <t>Address.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/geolocation</t>
+  </si>
+  <si>
+    <t>Address.extension:Geolocalizacion.value[x]</t>
+  </si>
+  <si>
+    <t>Address.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -962,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -971,8 +1091,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.71484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.15625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
@@ -981,7 +1101,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="21.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1595,7 +1715,7 @@
         <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1612,26 +1732,22 @@
         <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
         <v>77</v>
       </c>
@@ -1643,7 +1759,7 @@
         <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>77</v>
@@ -1655,13 +1771,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1679,7 +1795,7 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -1691,16 +1807,16 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>77</v>
@@ -1708,21 +1824,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1731,19 +1847,19 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1757,7 +1873,7 @@
         <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
         <v>77</v>
@@ -1769,99 +1885,97 @@
         <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="D8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>77</v>
       </c>
@@ -1873,7 +1987,7 @@
         <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>77</v>
@@ -1909,39 +2023,39 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1952,7 +2066,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -1961,16 +2075,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1985,7 +2099,7 @@
         <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
         <v>77</v>
@@ -2021,50 +2135,50 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2073,16 +2187,16 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2097,7 +2211,7 @@
         <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
         <v>77</v>
@@ -2121,59 +2235,59 @@
         <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>89</v>
@@ -2185,19 +2299,19 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2205,13 +2319,13 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="S11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
         <v>77</v>
@@ -2247,10 +2361,10 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>89</v>
@@ -2259,13 +2373,13 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2276,18 +2390,18 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>89</v>
@@ -2299,16 +2413,16 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2359,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2374,53 +2488,55 @@
         <v>85</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2435,7 +2551,7 @@
         <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
         <v>77</v>
@@ -2471,39 +2587,39 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2523,20 +2639,18 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2585,7 +2699,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2597,27 +2711,27 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2628,7 +2742,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -2637,21 +2751,19 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2663,71 +2775,1659 @@
         <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="U15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN15">
+  <autoFilter ref="A1:AN29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2737,7 +4437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI14">
+  <conditionalFormatting sqref="A2:AI28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/mfr/StructureDefinition-cl-addressMFR.xlsx
+++ b/fhir/ig/mfr/StructureDefinition-cl-addressMFR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:17:58-03:00</t>
+    <t>2024-03-15T10:36:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
